--- a/Templates/Example/Приложения.xlsx
+++ b/Templates/Example/Приложения.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DB0E96-D0D4-4FDE-927D-7901E562B42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Приложения" sheetId="1" r:id="rId1"/>
@@ -19,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Рег. №</t>
-  </si>
-  <si>
-    <t>Дата регистрации</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>№ договора</t>
   </si>
@@ -63,9 +58,6 @@
     <t>Примечание</t>
   </si>
   <si>
-    <t>Журнал регистрации</t>
-  </si>
-  <si>
     <t>Регистрация</t>
   </si>
   <si>
@@ -99,19 +91,22 @@
     <t>Templates\TestDocs\testDoc.txt</t>
   </si>
   <si>
-    <t>Загружен</t>
-  </si>
-  <si>
-    <t>17.05.2023</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>Рег. № приложения</t>
+  </si>
+  <si>
+    <t>Дата регистрации приложения</t>
+  </si>
+  <si>
+    <t>Журнал регистрации приложения</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -217,25 +212,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
@@ -244,36 +236,33 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -289,33 +278,33 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -592,232 +581,228 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="4" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="4"/>
+    <col min="9" max="9" width="27.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="M1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="N1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="O1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="T1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="19">
+        <v>40410</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="21">
-        <v>40410</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="22" t="s">
+      <c r="I2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="J2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="14"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="12"/>
       <c r="O2" s="3">
         <v>4</v>
       </c>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
       <c r="S2" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="14"/>
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.4">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="12"/>
       <c r="O3" s="3"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="14"/>
+    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.4">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="12"/>
       <c r="O4" s="3"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
     </row>
-    <row r="5" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="14"/>
+    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.4">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="12"/>
       <c r="O5" s="3"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="14"/>
+    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.4">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="12"/>
       <c r="O6" s="3"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="L7" s="10"/>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="L7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
